--- a/outputs/SORs/SOR Testing_PES EMEA.xlsx
+++ b/outputs/SORs/SOR Testing_PES EMEA.xlsx
@@ -11,35 +11,38 @@
     <sheet name="Dongguan China" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Dubai EPC UAE" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Dubai UAE" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Gainsborough - Epc" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Hongkong China" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Hyderabad India" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Faridabad India" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Gainsborough - Epc" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Hongkong China" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Kontich Belgium" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Molndal Sweden" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Nove Mesto Slovakia" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Rotherham United Kingdom" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Sao Paulo Brazil" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="St-Petersburg Russia" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Waldenburg Germany" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Piedras Negras Fasco Mexico" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Juarez Casa II" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Yueyang China" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Bangalore India" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Black River Falls Wisconsin" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Piedras Negras Fasco Mexico" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Rotherham United Kingdom" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Sao Paulo Brazil" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="St-Petersburg Russia" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Waldenburg Germany" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Hyderabad India" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Juarez MEJ II" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Yueyang China" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Changzhou China Center (EPC) C" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="Changzhou Epc China" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Juarez FCDM" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Mumbai India" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Noida India" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Juarez Casa I" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Juarez MEJ II" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="Suzhou China" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="Edmonton EDM Canada" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Jiaxing China" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Juarez Casa II" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Bangalore India" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Black River Falls Wisconsin" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Juarez FCDM" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Mumbai India" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Noida India" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Juarez Casa I" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Suzhou China" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="Edmonton EDM Canada" sheetId="31" state="visible" r:id="rId31"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -53,7 +56,7 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_value</t>
+    <t xml:space="preserve">ytd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -149,13 +152,13 @@
     <t xml:space="preserve">Dubai UAE</t>
   </si>
   <si>
+    <t xml:space="preserve">Faridabad India</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gainsborough - Epc</t>
   </si>
   <si>
     <t xml:space="preserve">Hongkong China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyderabad India</t>
   </si>
   <si>
     <t xml:space="preserve">Kontich Belgium</t>
@@ -165,6 +168,9 @@
   </si>
   <si>
     <t xml:space="preserve">Nove Mesto Slovakia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piedras Negras Fasco Mexico</t>
   </si>
   <si>
     <t xml:space="preserve">Rotherham United Kingdom</t>
@@ -179,22 +185,31 @@
     <t xml:space="preserve">Waldenburg Germany</t>
   </si>
   <si>
-    <t xml:space="preserve">Piedras Negras Fasco Mexico</t>
+    <t xml:space="preserve">Hyderabad India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juarez MEJ II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yueyang China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changzhou China Center (EPC) China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changzhou Epc China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiaxing China</t>
   </si>
   <si>
     <t xml:space="preserve">Juarez Casa II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yueyang China</t>
   </si>
   <si>
     <t xml:space="preserve">Bangalore India</t>
   </si>
   <si>
     <t xml:space="preserve">Black River Falls Wisconsin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Changzhou Epc China</t>
   </si>
   <si>
     <t xml:space="preserve">Juarez FCDM</t>
@@ -209,9 +224,6 @@
     <t xml:space="preserve">Juarez Casa I</t>
   </si>
   <si>
-    <t xml:space="preserve">Juarez MEJ II</t>
-  </si>
-  <si>
     <t xml:space="preserve">Suzhou China</t>
   </si>
   <si>
@@ -222,7 +234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="28">
+  <numFmts count="31">
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -251,6 +263,9 @@
     <numFmt numFmtId="190" formatCode="0.0%"/>
     <numFmt numFmtId="191" formatCode="0.0%"/>
     <numFmt numFmtId="192" formatCode="0.0%"/>
+    <numFmt numFmtId="193" formatCode="0.0%"/>
+    <numFmt numFmtId="194" formatCode="0.0%"/>
+    <numFmt numFmtId="195" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -286,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -316,6 +331,9 @@
     <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1354,7 +1372,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1415,7 +1435,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1476,7 +1498,9 @@
       <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="11" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -1533,7 +1557,9 @@
       <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="11" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -1823,18 +1849,10 @@
       <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
       <c r="K4" s="12" t="n">
         <v>0</v>
       </c>
@@ -1888,7 +1906,9 @@
       <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="12" t="n">
+        <v>0</v>
+      </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -1898,22 +1918,22 @@
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
-      <c r="M5" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="12" t="n">
-        <v>1</v>
-      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
       <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
+      <c r="P5" s="12" t="n">
+        <v>0</v>
+      </c>
       <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
+      <c r="R5" s="12" t="n">
+        <v>0</v>
+      </c>
       <c r="S5" s="12"/>
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12"/>
       <c r="W5" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1929,7 +1949,9 @@
       <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="12" t="n">
+        <v>0</v>
+      </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -1996,26 +2018,18 @@
         <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="12" t="n">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
       <c r="K7" s="12" t="n">
         <v>0</v>
       </c>
@@ -2070,35 +2084,19 @@
         <v>32</v>
       </c>
       <c r="E8" s="12" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="12" t="n">
-        <v>0</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
       <c r="O8" s="12" t="n">
         <v>0</v>
       </c>
@@ -2106,25 +2104,25 @@
         <v>0</v>
       </c>
       <c r="Q8" s="12" t="n">
-        <v>0</v>
+        <v>0.1429</v>
       </c>
       <c r="R8" s="12" t="n">
-        <v>0</v>
+        <v>0.1667</v>
       </c>
       <c r="S8" s="12" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="T8" s="12" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="U8" s="12" t="n">
         <v>0</v>
       </c>
       <c r="V8" s="12" t="n">
-        <v>0</v>
+        <v>0.6977</v>
       </c>
       <c r="W8" s="12" t="n">
-        <v>0</v>
+        <v>0.7692</v>
       </c>
     </row>
     <row r="9">
@@ -2141,35 +2139,19 @@
         <v>32</v>
       </c>
       <c r="E9" s="12" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="12" t="n">
-        <v>0</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
       <c r="O9" s="12" t="n">
         <v>0</v>
       </c>
@@ -2177,25 +2159,25 @@
         <v>0</v>
       </c>
       <c r="Q9" s="12" t="n">
-        <v>0</v>
+        <v>0.12861</v>
       </c>
       <c r="R9" s="12" t="n">
-        <v>0</v>
+        <v>0.15003</v>
       </c>
       <c r="S9" s="12" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="T9" s="12" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="U9" s="12" t="n">
         <v>0</v>
       </c>
       <c r="V9" s="12" t="n">
-        <v>0</v>
+        <v>0.62793</v>
       </c>
       <c r="W9" s="12" t="n">
-        <v>0</v>
+        <v>0.69228</v>
       </c>
     </row>
   </sheetData>
@@ -2296,7 +2278,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2336,10 +2320,18 @@
       <c r="R2" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
+      <c r="S2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="W2" s="13" t="n">
         <v>0</v>
       </c>
@@ -2357,7 +2349,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2397,10 +2391,18 @@
       <c r="R3" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
+      <c r="S3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="W3" s="13" t="n">
         <v>0</v>
       </c>
@@ -2416,11 +2418,13 @@
         <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="13"/>
+        <v>26</v>
+      </c>
+      <c r="E4" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G4" s="13" t="n">
         <v>0</v>
@@ -2447,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="13" t="n">
-        <v>0.0054</v>
+        <v>0</v>
       </c>
       <c r="P4" s="13" t="n">
         <v>0</v>
@@ -2456,14 +2460,22 @@
         <v>0</v>
       </c>
       <c r="R4" s="13" t="n">
-        <v>0.0054</v>
-      </c>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="S4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="W4" s="13" t="n">
-        <v>0.0054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2477,54 +2489,316 @@
         <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="13" t="n">
-        <v>0</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
       <c r="M5" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="13" t="n">
-        <v>0.00486</v>
-      </c>
-      <c r="P5" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="13" t="n">
-        <v>0.00486</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
       <c r="S5" s="13"/>
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
       <c r="W5" s="13" t="n">
-        <v>0.00486</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="13" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="13" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="13" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="13" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="13" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2625,7 +2899,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2665,14 +2941,10 @@
       <c r="R2" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="S2" s="14" t="n">
-        <v>0</v>
-      </c>
+      <c r="S2" s="14"/>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
-      <c r="V2" s="14" t="n">
-        <v>0</v>
-      </c>
+      <c r="V2" s="14"/>
       <c r="W2" s="14" t="n">
         <v>0</v>
       </c>
@@ -2690,7 +2962,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2730,16 +3004,138 @@
       <c r="R3" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="S3" s="14" t="n">
-        <v>0</v>
-      </c>
+      <c r="S3" s="14"/>
       <c r="T3" s="14"/>
       <c r="U3" s="14"/>
-      <c r="V3" s="14" t="n">
-        <v>0</v>
-      </c>
+      <c r="V3" s="14"/>
       <c r="W3" s="14" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="14" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14" t="n">
+        <v>0.0054</v>
+      </c>
+      <c r="P4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="14" t="n">
+        <v>0.0054</v>
+      </c>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14" t="n">
+        <v>0.0054</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="14" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="14" t="n">
+        <v>0.00486</v>
+      </c>
+      <c r="P5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="14" t="n">
+        <v>0.00486</v>
+      </c>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14" t="n">
+        <v>0.00486</v>
       </c>
     </row>
   </sheetData>
@@ -2885,12 +3281,8 @@
       <c r="S2" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="T2" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
       <c r="V2" s="15" t="n">
         <v>0</v>
       </c>
@@ -2956,425 +3348,13 @@
       <c r="S3" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="T3" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
       <c r="V3" s="15" t="n">
         <v>0</v>
       </c>
       <c r="W3" s="15" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="V5" s="15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W5" s="15" t="n">
-        <v>0.166666666666667</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="15" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="15" t="n">
-        <v>0.0093</v>
-      </c>
-      <c r="P7" s="15" t="n">
-        <v>0.0093</v>
-      </c>
-      <c r="Q7" s="15" t="n">
-        <v>0.0089</v>
-      </c>
-      <c r="R7" s="15" t="n">
-        <v>0.0275</v>
-      </c>
-      <c r="S7" s="15" t="n">
-        <v>0.0092</v>
-      </c>
-      <c r="T7" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="15" t="n">
-        <v>0.0092</v>
-      </c>
-      <c r="W7" s="15" t="n">
-        <v>0.037</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="15" t="n">
-        <v>0.00837</v>
-      </c>
-      <c r="P8" s="15" t="n">
-        <v>0.00837</v>
-      </c>
-      <c r="Q8" s="15" t="n">
-        <v>0.00801</v>
-      </c>
-      <c r="R8" s="15" t="n">
-        <v>0.02475</v>
-      </c>
-      <c r="S8" s="15" t="n">
-        <v>0.00828</v>
-      </c>
-      <c r="T8" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="15" t="n">
-        <v>0.00828</v>
-      </c>
-      <c r="W8" s="15" t="n">
-        <v>0.0333</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="15" t="n">
-        <v>0.0288</v>
-      </c>
-      <c r="H9" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="15" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="K9" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="15" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="M9" s="15" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="N9" s="15" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O9" s="15" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="P9" s="15" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="Q9" s="15" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="R9" s="15" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="S9" s="15" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="T9" s="15" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="U9" s="15" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="V9" s="15" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="W9" s="15" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3479,12 +3459,20 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+        <v>27</v>
+      </c>
+      <c r="G2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" s="16" t="n">
         <v>0</v>
       </c>
@@ -3536,34 +3524,62 @@
         <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E3" s="16" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+        <v>28</v>
+      </c>
+      <c r="G3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="P3" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="Q3" s="16"/>
+      <c r="Q3" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="R3" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
+      <c r="S3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="W3" s="16" t="n">
         <v>0</v>
       </c>
@@ -3579,64 +3595,64 @@
         <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E4" s="16" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" s="16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H4" s="16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I4" s="16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J4" s="16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K4" s="16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L4" s="16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M4" s="16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N4" s="16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O4" s="16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P4" s="16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R4" s="16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S4" s="16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T4" s="16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U4" s="16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V4" s="16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W4" s="16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3652,54 +3668,46 @@
       <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="16" t="n">
-        <v>0</v>
-      </c>
+      <c r="E5" s="16"/>
       <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+        <v>27</v>
+      </c>
+      <c r="G5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="L5" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="16" t="n">
-        <v>0</v>
-      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
       <c r="N5" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="O5" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="16" t="n">
-        <v>0</v>
-      </c>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
       <c r="T5" s="16" t="n">
         <v>0</v>
       </c>
       <c r="U5" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W5" s="16" t="n">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
     </row>
     <row r="6">
@@ -3713,46 +3721,62 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
+        <v>28</v>
+      </c>
+      <c r="G6" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="16" t="n">
+        <v>0.5</v>
+      </c>
       <c r="O6" s="16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P6" s="16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q6" s="16" t="n">
-        <v>0.1429</v>
+        <v>0.5</v>
       </c>
       <c r="R6" s="16" t="n">
-        <v>0.1667</v>
+        <v>0.5</v>
       </c>
       <c r="S6" s="16" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="T6" s="16" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="U6" s="16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V6" s="16" t="n">
-        <v>0.6977</v>
+        <v>0.5</v>
       </c>
       <c r="W6" s="16" t="n">
-        <v>0.7692</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -3768,44 +3792,204 @@
       <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="16" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16" t="n">
+        <v>0.0093</v>
+      </c>
+      <c r="P7" s="16" t="n">
+        <v>0.0093</v>
+      </c>
+      <c r="Q7" s="16" t="n">
+        <v>0.0089</v>
+      </c>
+      <c r="R7" s="16" t="n">
+        <v>0.0275</v>
+      </c>
+      <c r="S7" s="16" t="n">
+        <v>0.0092</v>
+      </c>
+      <c r="T7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="16" t="n">
+        <v>0.0092</v>
+      </c>
+      <c r="W7" s="16" t="n">
+        <v>0.037</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="16" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F8" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="16" t="n">
-        <v>0.12861</v>
-      </c>
-      <c r="R7" s="16" t="n">
-        <v>0.15003</v>
-      </c>
-      <c r="S7" s="16" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="T7" s="16" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="U7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="16" t="n">
-        <v>0.62793</v>
-      </c>
-      <c r="W7" s="16" t="n">
-        <v>0.69228</v>
+      <c r="G8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16" t="n">
+        <v>0.00837</v>
+      </c>
+      <c r="P8" s="16" t="n">
+        <v>0.00837</v>
+      </c>
+      <c r="Q8" s="16" t="n">
+        <v>0.00801</v>
+      </c>
+      <c r="R8" s="16" t="n">
+        <v>0.02475</v>
+      </c>
+      <c r="S8" s="16" t="n">
+        <v>0.00828</v>
+      </c>
+      <c r="T8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="16" t="n">
+        <v>0.00828</v>
+      </c>
+      <c r="W8" s="16" t="n">
+        <v>0.0333</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="16" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="16" t="n">
+        <v>0.0288</v>
+      </c>
+      <c r="H9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="K9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="16" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="M9" s="16" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="N9" s="16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O9" s="16" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="P9" s="16" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q9" s="16" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="R9" s="16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="S9" s="16" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="T9" s="16" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="U9" s="16" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="V9" s="16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="W9" s="16" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3904,9 +4088,11 @@
         <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="17"/>
+        <v>26</v>
+      </c>
+      <c r="E2" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3914,22 +4100,38 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
-      <c r="K2" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="K2" s="17"/>
       <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
+      <c r="M2" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="N2" s="17" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
+      <c r="O2" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="W2" s="17" t="n">
         <v>0</v>
       </c>
@@ -3945,62 +4147,52 @@
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="17"/>
+        <v>26</v>
+      </c>
+      <c r="E3" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="17" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H3" s="17" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I3" s="17" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J3" s="17" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K3" s="17" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L3" s="17" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
       <c r="M3" s="17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N3" s="17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O3" s="17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P3" s="17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R3" s="17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S3" s="17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T3" s="17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U3" s="17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V3" s="17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W3" s="17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4014,11 +4206,13 @@
         <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="17"/>
+        <v>26</v>
+      </c>
+      <c r="E4" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G4" s="17" t="n">
         <v>0</v>
@@ -4048,13 +4242,13 @@
         <v>0</v>
       </c>
       <c r="P4" s="17" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="17" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R4" s="17" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="S4" s="17" t="n">
         <v>0</v>
@@ -4069,76 +4263,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="17" t="n">
-        <v>0.5263</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="17" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Q5" s="17" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="R5" s="17" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="S5" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" s="17" t="n">
-        <v>0.47367</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4237,9 +4362,11 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="18"/>
+        <v>26</v>
+      </c>
+      <c r="E2" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -4255,14 +4382,30 @@
       <c r="N2" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
+      <c r="O2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="W2" s="18" t="n">
         <v>0</v>
       </c>
@@ -4278,62 +4421,52 @@
         <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="18"/>
+        <v>26</v>
+      </c>
+      <c r="E3" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H3" s="18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I3" s="18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J3" s="18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K3" s="18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L3" s="18" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
       <c r="M3" s="18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N3" s="18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O3" s="18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P3" s="18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R3" s="18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S3" s="18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T3" s="18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U3" s="18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V3" s="18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W3" s="18" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4349,7 +4482,9 @@
       <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="18" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -4369,13 +4504,13 @@
         <v>0</v>
       </c>
       <c r="P4" s="18" t="n">
-        <v>0</v>
+        <v>0.6667</v>
       </c>
       <c r="Q4" s="18" t="n">
         <v>0</v>
       </c>
       <c r="R4" s="18" t="n">
-        <v>0</v>
+        <v>0.5405</v>
       </c>
       <c r="S4" s="18" t="n">
         <v>0</v>
@@ -4384,13 +4519,13 @@
         <v>0</v>
       </c>
       <c r="U4" s="18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V4" s="18" t="n">
-        <v>0</v>
+        <v>0.3704</v>
       </c>
       <c r="W4" s="18" t="n">
-        <v>0</v>
+        <v>0.9091</v>
       </c>
     </row>
     <row r="5">
@@ -4406,7 +4541,9 @@
       <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="E5" s="18" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -4426,13 +4563,13 @@
         <v>0</v>
       </c>
       <c r="P5" s="18" t="n">
-        <v>0</v>
+        <v>0.60003</v>
       </c>
       <c r="Q5" s="18" t="n">
         <v>0</v>
       </c>
       <c r="R5" s="18" t="n">
-        <v>0</v>
+        <v>0.48645</v>
       </c>
       <c r="S5" s="18" t="n">
         <v>0</v>
@@ -4441,13 +4578,13 @@
         <v>0</v>
       </c>
       <c r="U5" s="18" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="V5" s="18" t="n">
-        <v>0</v>
+        <v>0.33336</v>
       </c>
       <c r="W5" s="18" t="n">
-        <v>0</v>
+        <v>0.81819</v>
       </c>
     </row>
   </sheetData>
@@ -4546,7 +4683,7 @@
         <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E2" s="19" t="n">
         <v>0</v>
@@ -4554,24 +4691,12 @@
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="19" t="n">
-        <v>0</v>
-      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
       <c r="M2" s="19" t="n">
         <v>0</v>
       </c>
@@ -4617,7 +4742,7 @@
         <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E3" s="19" t="n">
         <v>0</v>
@@ -4625,24 +4750,12 @@
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="19" t="n">
-        <v>0</v>
-      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="19" t="n">
         <v>0</v>
       </c>
@@ -4688,63 +4801,220 @@
         <v>49</v>
       </c>
       <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P5" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R5" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S5" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T5" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U5" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V5" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W5" s="19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="19" t="n">
+      <c r="E6" s="19" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="19" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4847,7 +5117,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4892,16 +5162,16 @@
         <v>0.0123</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>0</v>
+        <v>0.0123</v>
       </c>
       <c r="U2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>0.0123</v>
+        <v>0.0247</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.0252</v>
+        <v>0.0377</v>
       </c>
     </row>
     <row r="3">
@@ -4918,7 +5188,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4963,16 +5233,16 @@
         <v>0.01107</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>0</v>
+        <v>0.01107</v>
       </c>
       <c r="U3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>0.01107</v>
+        <v>0.02223</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.02268</v>
+        <v>0.03393</v>
       </c>
     </row>
     <row r="4">
@@ -4989,7 +5259,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -5255,7 +5525,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -5326,7 +5596,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -5397,7 +5667,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -5550,7 +5820,7 @@
         <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E2" s="20" t="n">
         <v>0</v>
@@ -5558,30 +5828,14 @@
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
       <c r="O2" s="20" t="n">
         <v>0</v>
       </c>
@@ -5589,10 +5843,10 @@
         <v>0</v>
       </c>
       <c r="Q2" s="20" t="n">
-        <v>0.1667</v>
+        <v>0</v>
       </c>
       <c r="R2" s="20" t="n">
-        <v>0.1667</v>
+        <v>0</v>
       </c>
       <c r="S2" s="20" t="n">
         <v>0</v>
@@ -5607,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="20" t="n">
-        <v>0.1724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -5621,7 +5875,7 @@
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E3" s="20" t="n">
         <v>0</v>
@@ -5629,30 +5883,14 @@
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
       <c r="O3" s="20" t="n">
         <v>0</v>
       </c>
@@ -5660,10 +5898,10 @@
         <v>0</v>
       </c>
       <c r="Q3" s="20" t="n">
-        <v>0.15003</v>
+        <v>0</v>
       </c>
       <c r="R3" s="20" t="n">
-        <v>0.15003</v>
+        <v>0</v>
       </c>
       <c r="S3" s="20" t="n">
         <v>0</v>
@@ -5678,77 +5916,6 @@
         <v>0</v>
       </c>
       <c r="W3" s="20" t="n">
-        <v>0.15516</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="20" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J4" s="20" t="n">
-        <v>0.1754</v>
-      </c>
-      <c r="K4" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5848,7 +6015,7 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E2" s="21" t="n">
         <v>0</v>
@@ -5856,41 +6023,25 @@
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
       <c r="O2" s="21" t="n">
         <v>0</v>
       </c>
       <c r="P2" s="21" t="n">
-        <v>0.0417</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="21" t="n">
-        <v>0.0909</v>
+        <v>0</v>
       </c>
       <c r="R2" s="21" t="n">
-        <v>0.1734</v>
+        <v>0</v>
       </c>
       <c r="S2" s="21" t="n">
         <v>0</v>
@@ -5905,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="21" t="n">
-        <v>0.2564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -5919,7 +6070,7 @@
         <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E3" s="21" t="n">
         <v>0</v>
@@ -5927,41 +6078,25 @@
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
       <c r="O3" s="21" t="n">
         <v>0</v>
       </c>
       <c r="P3" s="21" t="n">
-        <v>0.03753</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="21" t="n">
-        <v>0.08181</v>
+        <v>0</v>
       </c>
       <c r="R3" s="21" t="n">
-        <v>0.15606</v>
+        <v>0</v>
       </c>
       <c r="S3" s="21" t="n">
         <v>0</v>
@@ -5976,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="21" t="n">
-        <v>0.23076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -5993,54 +6128,196 @@
         <v>32</v>
       </c>
       <c r="E4" s="21" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="21" t="n">
+        <v>0.0417</v>
+      </c>
+      <c r="Q4" s="21" t="n">
+        <v>0.0909</v>
+      </c>
+      <c r="R4" s="21" t="n">
+        <v>0.1734</v>
+      </c>
+      <c r="S4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="21" t="n">
+        <v>0.2564</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="21" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="21" t="n">
+        <v>0.03753</v>
+      </c>
+      <c r="Q5" s="21" t="n">
+        <v>0.08181</v>
+      </c>
+      <c r="R5" s="21" t="n">
+        <v>0.15606</v>
+      </c>
+      <c r="S5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="21" t="n">
+        <v>0.23076</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="21" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F6" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="21" t="n">
+      <c r="G6" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6140,7 +6417,7 @@
         <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E2" s="22" t="n">
         <v>0</v>
@@ -6148,30 +6425,14 @@
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="22" t="n">
-        <v>0</v>
-      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
       <c r="O2" s="22" t="n">
         <v>0</v>
       </c>
@@ -6211,7 +6472,7 @@
         <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E3" s="22" t="n">
         <v>0</v>
@@ -6219,30 +6480,14 @@
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="22" t="n">
-        <v>0</v>
-      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
       <c r="O3" s="22" t="n">
         <v>0</v>
       </c>
@@ -6268,73 +6513,6 @@
         <v>0</v>
       </c>
       <c r="W3" s="22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6434,62 +6612,32 @@
         <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="23" t="n">
-        <v>0</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E2" s="23"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="23" t="n">
-        <v>0</v>
-      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
       <c r="K2" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="L2" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="23" t="n">
-        <v>0</v>
-      </c>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
       <c r="N2" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="23" t="n">
-        <v>0</v>
-      </c>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
       <c r="W2" s="23" t="n">
         <v>0</v>
       </c>
@@ -6505,64 +6653,62 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="23" t="n">
-        <v>0</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E3" s="23"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H3" s="23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I3" s="23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K3" s="23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L3" s="23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M3" s="23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N3" s="23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O3" s="23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P3" s="23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q3" s="23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R3" s="23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S3" s="23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T3" s="23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U3" s="23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V3" s="23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W3" s="23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -6579,10 +6725,10 @@
         <v>32</v>
       </c>
       <c r="E4" s="23" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4" s="23" t="n">
         <v>0</v>
@@ -6612,13 +6758,13 @@
         <v>0</v>
       </c>
       <c r="P4" s="23" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q4" s="23" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R4" s="23" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="S4" s="23" t="n">
         <v>0</v>
@@ -6633,7 +6779,78 @@
         <v>0</v>
       </c>
       <c r="W4" s="23" t="n">
-        <v>0</v>
+        <v>0.5263</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="23" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="23" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Q5" s="23" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="R5" s="23" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="S5" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="23" t="n">
+        <v>0.47367</v>
       </c>
     </row>
   </sheetData>
@@ -6735,7 +6952,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="24" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6765,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="24" t="n">
-        <v>0.0213</v>
+        <v>0</v>
       </c>
       <c r="P2" s="24" t="n">
         <v>0</v>
@@ -6774,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="24" t="n">
-        <v>0.0213</v>
+        <v>0</v>
       </c>
       <c r="S2" s="24" t="n">
         <v>0</v>
@@ -6789,7 +7006,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="24" t="n">
-        <v>0.0221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -6806,7 +7023,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="24" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6836,7 +7053,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="24" t="n">
-        <v>0.01917</v>
+        <v>0</v>
       </c>
       <c r="P3" s="24" t="n">
         <v>0</v>
@@ -6845,7 +7062,7 @@
         <v>0</v>
       </c>
       <c r="R3" s="24" t="n">
-        <v>0.01917</v>
+        <v>0</v>
       </c>
       <c r="S3" s="24" t="n">
         <v>0</v>
@@ -6860,7 +7077,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="24" t="n">
-        <v>0.01989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -6877,7 +7094,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="24" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -7033,17 +7250,29 @@
         <v>32</v>
       </c>
       <c r="E2" s="25" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
+      <c r="G2" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="25" t="n">
+        <v>0</v>
+      </c>
       <c r="M2" s="25" t="n">
         <v>0</v>
       </c>
@@ -7054,13 +7283,13 @@
         <v>0</v>
       </c>
       <c r="P2" s="25" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="25" t="n">
-        <v>0.05</v>
+        <v>0.1667</v>
       </c>
       <c r="R2" s="25" t="n">
-        <v>0.1449</v>
+        <v>0.1667</v>
       </c>
       <c r="S2" s="25" t="n">
         <v>0</v>
@@ -7069,13 +7298,13 @@
         <v>0</v>
       </c>
       <c r="U2" s="25" t="n">
-        <v>0.0526</v>
+        <v>0</v>
       </c>
       <c r="V2" s="25" t="n">
-        <v>0.0508</v>
+        <v>0</v>
       </c>
       <c r="W2" s="25" t="n">
-        <v>0.199</v>
+        <v>0.1724</v>
       </c>
     </row>
     <row r="3">
@@ -7092,17 +7321,29 @@
         <v>32</v>
       </c>
       <c r="E3" s="25" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
+      <c r="G3" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="25" t="n">
+        <v>0</v>
+      </c>
       <c r="M3" s="25" t="n">
         <v>0</v>
       </c>
@@ -7113,13 +7354,13 @@
         <v>0</v>
       </c>
       <c r="P3" s="25" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="25" t="n">
-        <v>0.045</v>
+        <v>0.15003</v>
       </c>
       <c r="R3" s="25" t="n">
-        <v>0.13041</v>
+        <v>0.15003</v>
       </c>
       <c r="S3" s="25" t="n">
         <v>0</v>
@@ -7128,13 +7369,13 @@
         <v>0</v>
       </c>
       <c r="U3" s="25" t="n">
-        <v>0.04734</v>
+        <v>0</v>
       </c>
       <c r="V3" s="25" t="n">
-        <v>0.04572</v>
+        <v>0</v>
       </c>
       <c r="W3" s="25" t="n">
-        <v>0.1791</v>
+        <v>0.15516</v>
       </c>
     </row>
     <row r="4">
@@ -7151,57 +7392,61 @@
         <v>32</v>
       </c>
       <c r="E4" s="25" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="25" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H4" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="25" t="n">
+        <v>0.2</v>
+      </c>
       <c r="J4" s="25" t="n">
-        <v>1.3333</v>
-      </c>
-      <c r="K4" s="25"/>
+        <v>0.1754</v>
+      </c>
+      <c r="K4" s="25" t="n">
+        <v>0</v>
+      </c>
       <c r="L4" s="25" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="25" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="25" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="25" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="25" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="25" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="25" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="25" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="25" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7302,16 +7547,30 @@
       <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="26"/>
+      <c r="E2" s="26" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
+      <c r="G2" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="M2" s="26" t="n">
         <v>0</v>
       </c>
@@ -7322,13 +7581,13 @@
         <v>0</v>
       </c>
       <c r="P2" s="26" t="n">
-        <v>0.6667</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="26" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="26" t="n">
-        <v>0.5405</v>
+        <v>0</v>
       </c>
       <c r="S2" s="26" t="n">
         <v>0</v>
@@ -7337,13 +7596,13 @@
         <v>0</v>
       </c>
       <c r="U2" s="26" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V2" s="26" t="n">
-        <v>0.3704</v>
+        <v>0</v>
       </c>
       <c r="W2" s="26" t="n">
-        <v>0.9091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -7359,16 +7618,30 @@
       <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="26"/>
+      <c r="E3" s="26" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="G3" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="M3" s="26" t="n">
         <v>0</v>
       </c>
@@ -7379,13 +7652,13 @@
         <v>0</v>
       </c>
       <c r="P3" s="26" t="n">
-        <v>0.60003</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="26" t="n">
         <v>0</v>
       </c>
       <c r="R3" s="26" t="n">
-        <v>0.48645</v>
+        <v>0</v>
       </c>
       <c r="S3" s="26" t="n">
         <v>0</v>
@@ -7394,13 +7667,80 @@
         <v>0</v>
       </c>
       <c r="U3" s="26" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="V3" s="26" t="n">
-        <v>0.33336</v>
+        <v>0</v>
       </c>
       <c r="W3" s="26" t="n">
-        <v>0.81819</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="26" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="26" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7501,16 +7841,30 @@
       <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="27" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
+      <c r="G2" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="27" t="n">
+        <v>0</v>
+      </c>
       <c r="M2" s="27" t="n">
         <v>0</v>
       </c>
@@ -7558,16 +7912,30 @@
       <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="27"/>
+      <c r="E3" s="27" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
+      <c r="G3" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="27" t="n">
+        <v>0</v>
+      </c>
       <c r="M3" s="27" t="n">
         <v>0</v>
       </c>
@@ -7599,6 +7967,77 @@
         <v>0</v>
       </c>
       <c r="W3" s="27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="27" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7700,32 +8139,62 @@
       <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="28" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
+      <c r="G2" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="28" t="n">
+        <v>0.0213</v>
+      </c>
       <c r="P2" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="Q2" s="28"/>
+      <c r="Q2" s="28" t="n">
+        <v>0</v>
+      </c>
       <c r="R2" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
+        <v>0.0213</v>
+      </c>
+      <c r="S2" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="28" t="n">
+        <v>0</v>
+      </c>
       <c r="W2" s="28" t="n">
-        <v>0</v>
+        <v>0.0221</v>
       </c>
     </row>
     <row r="3">
@@ -7741,32 +8210,403 @@
       <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="28"/>
+      <c r="E3" s="28" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
+      <c r="G3" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="28" t="n">
+        <v>0.01917</v>
+      </c>
       <c r="P3" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="Q3" s="28"/>
+      <c r="Q3" s="28" t="n">
+        <v>0</v>
+      </c>
       <c r="R3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
+        <v>0.01917</v>
+      </c>
+      <c r="S3" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="28" t="n">
+        <v>0</v>
+      </c>
       <c r="W3" s="28" t="n">
-        <v>0</v>
+        <v>0.01989</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="28" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="29" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="29" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q2" s="29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R2" s="29" t="n">
+        <v>0.1449</v>
+      </c>
+      <c r="S2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="29" t="n">
+        <v>0.0526</v>
+      </c>
+      <c r="V2" s="29" t="n">
+        <v>0.0508</v>
+      </c>
+      <c r="W2" s="29" t="n">
+        <v>0.199</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="29" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="29" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q3" s="29" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="R3" s="29" t="n">
+        <v>0.13041</v>
+      </c>
+      <c r="S3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="29" t="n">
+        <v>0.04734</v>
+      </c>
+      <c r="V3" s="29" t="n">
+        <v>0.04572</v>
+      </c>
+      <c r="W3" s="29" t="n">
+        <v>0.1791</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="29" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29" t="n">
+        <v>1.3333</v>
+      </c>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="M4" s="29" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="N4" s="29" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O4" s="29" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="P4" s="29" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q4" s="29" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="R4" s="29" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="S4" s="29" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="T4" s="29" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="U4" s="29" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="V4" s="29" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="W4" s="29" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8073,6 +8913,380 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="30" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="30" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="31" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="31" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -9000,290 +10214,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -9582,6 +10512,219 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="7" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -9978,7 +11121,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -10045,7 +11190,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>

--- a/outputs/SORs/SOR Testing_PES EMEA.xlsx
+++ b/outputs/SORs/SOR Testing_PES EMEA.xlsx
@@ -1228,14 +1228,10 @@
       <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10" t="n">
         <v>1</v>
@@ -1499,7 +1495,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -1558,7 +1554,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="11" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -2033,9 +2029,7 @@
       <c r="K7" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="L7" s="12"/>
       <c r="M7" s="12" t="n">
         <v>0</v>
       </c>
@@ -2084,7 +2078,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="12" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -2139,7 +2133,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="12" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -2602,7 +2596,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -2673,7 +2667,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -2744,7 +2738,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -3026,7 +3020,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="14" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -3089,7 +3083,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="14" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -3793,7 +3787,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="16" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -3864,7 +3858,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="16" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -3935,13 +3929,13 @@
         <v>32</v>
       </c>
       <c r="E9" s="16" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="16" t="n">
-        <v>0.0288</v>
+        <v>0.0291</v>
       </c>
       <c r="H9" s="16" t="n">
         <v>0</v>
@@ -3950,46 +3944,46 @@
         <v>0</v>
       </c>
       <c r="J9" s="16" t="n">
-        <v>0.029</v>
+        <v>0.0293</v>
       </c>
       <c r="K9" s="16" t="n">
         <v>0</v>
       </c>
       <c r="L9" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M9" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N9" s="16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O9" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P9" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R9" s="16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S9" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T9" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U9" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V9" s="16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W9" s="16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4483,7 +4477,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="18" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -4542,7 +4536,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="18" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -4914,7 +4908,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="19" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -4973,7 +4967,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="19" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -5268,52 +5262,52 @@
         <v>0</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.0123</v>
+        <v>0.012</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.0125</v>
+        <v>0.0122</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.0248</v>
+        <v>0.0242</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0</v>
+        <v>0.0122</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5330,7 +5324,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.5</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -5387,7 +5381,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.5</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -5458,7 +5452,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.5</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -5475,40 +5469,40 @@
         <v>0</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>0.5</v>
+        <v>0.9231</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>0.5</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>0.5</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>0.5</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>0.5</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>0.5</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.5</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>0.5</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>0.5</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.5</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>0.5</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.5</v>
+        <v>0.866666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -5525,7 +5519,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -5596,7 +5590,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -5667,7 +5661,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -6128,7 +6122,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="21" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -6199,7 +6193,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="21" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -6270,7 +6264,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="21" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -6284,9 +6278,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="21"/>
-      <c r="L6" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="L6" s="21"/>
       <c r="M6" s="21" t="n">
         <v>0</v>
       </c>
@@ -6725,7 +6717,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="23" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -6796,7 +6788,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="23" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -6952,7 +6944,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="24" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -7023,7 +7015,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="24" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -7094,7 +7086,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="24" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -7115,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="24" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M4" s="24" t="n">
         <v>0</v>
@@ -7250,7 +7242,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="25" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -7321,7 +7313,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="25" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -7392,7 +7384,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="25" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -7548,7 +7540,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="26" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -7619,7 +7611,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="26" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -7690,7 +7682,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="26" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -7706,9 +7698,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="26"/>
-      <c r="L4" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="L4" s="26"/>
       <c r="M4" s="26" t="n">
         <v>0</v>
       </c>
@@ -7842,7 +7832,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="27" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -7913,7 +7903,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="27" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -7984,7 +7974,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="27" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -8005,40 +7995,40 @@
         <v>0</v>
       </c>
       <c r="L4" s="27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4" s="27" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="N4" s="27" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O4" s="27" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="P4" s="27" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="27" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R4" s="27" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="27" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T4" s="27" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U4" s="27" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V4" s="27" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8140,7 +8130,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="28" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -8211,7 +8201,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="28" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -8282,28 +8272,28 @@
         <v>32</v>
       </c>
       <c r="E4" s="28" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="28" t="n">
-        <v>0</v>
+        <v>0.0222</v>
       </c>
       <c r="H4" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="28" t="n">
-        <v>0</v>
+        <v>0.0227</v>
       </c>
       <c r="J4" s="28" t="n">
-        <v>0</v>
+        <v>0.0447</v>
       </c>
       <c r="K4" s="28" t="n">
-        <v>0</v>
+        <v>0.0227</v>
       </c>
       <c r="L4" s="28" t="n">
-        <v>0</v>
+        <v>0.0488</v>
       </c>
       <c r="M4" s="28" t="n">
         <v>0</v>
@@ -8438,7 +8428,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="29" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -8497,7 +8487,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="29" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -8556,7 +8546,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="29" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -8572,9 +8562,7 @@
         <v>1.3333</v>
       </c>
       <c r="K4" s="29"/>
-      <c r="L4" s="29" t="n">
-        <v>0.0833333333333333</v>
-      </c>
+      <c r="L4" s="29"/>
       <c r="M4" s="29" t="n">
         <v>0.0833333333333333</v>
       </c>
@@ -9006,7 +8994,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="30" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -9065,7 +9053,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="30" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -9209,7 +9197,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="31" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -9252,7 +9240,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="31" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -10526,7 +10514,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -10597,7 +10585,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -10668,7 +10656,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>

--- a/outputs/SORs/SOR Testing_PES EMEA.xlsx
+++ b/outputs/SORs/SOR Testing_PES EMEA.xlsx
@@ -1368,9 +1368,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="11"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1431,9 +1429,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1494,9 +1490,7 @@
       <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="11" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E4" s="11"/>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -1553,9 +1547,7 @@
       <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="11" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="11"/>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -2077,9 +2069,7 @@
       <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="12" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E8" s="12"/>
       <c r="F8" t="s">
         <v>27</v>
       </c>
@@ -2132,9 +2122,7 @@
       <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="12" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E9" s="12"/>
       <c r="F9" t="s">
         <v>28</v>
       </c>
@@ -2596,7 +2584,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -2667,7 +2655,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -2738,7 +2726,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -2893,9 +2881,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="14" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="14"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2956,9 +2942,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="14" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="14"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3019,9 +3003,7 @@
       <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="14" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E4" s="14"/>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -3082,9 +3064,7 @@
       <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="14" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="14"/>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -3230,9 +3210,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="15"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3297,9 +3275,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="15"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3787,7 +3763,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="16" t="n">
-        <v>0.0776</v>
+        <v>0.0294</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -3858,7 +3834,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="16" t="n">
-        <v>0.0776</v>
+        <v>0.0294</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -3929,7 +3905,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="16" t="n">
-        <v>0.0776</v>
+        <v>0.0294</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -3953,37 +3929,37 @@
         <v>0</v>
       </c>
       <c r="M9" s="16" t="n">
-        <v>0</v>
+        <v>0.00588333333333333</v>
       </c>
       <c r="N9" s="16" t="n">
-        <v>0</v>
+        <v>0.01765</v>
       </c>
       <c r="O9" s="16" t="n">
-        <v>0</v>
+        <v>0.00588333333333333</v>
       </c>
       <c r="P9" s="16" t="n">
-        <v>0</v>
+        <v>0.00588333333333333</v>
       </c>
       <c r="Q9" s="16" t="n">
-        <v>0</v>
+        <v>0.00588333333333333</v>
       </c>
       <c r="R9" s="16" t="n">
-        <v>0</v>
+        <v>0.01765</v>
       </c>
       <c r="S9" s="16" t="n">
-        <v>0</v>
+        <v>0.00588333333333333</v>
       </c>
       <c r="T9" s="16" t="n">
-        <v>0</v>
+        <v>0.00588333333333333</v>
       </c>
       <c r="U9" s="16" t="n">
-        <v>0</v>
+        <v>0.00588333333333333</v>
       </c>
       <c r="V9" s="16" t="n">
-        <v>0</v>
+        <v>0.01765</v>
       </c>
       <c r="W9" s="16" t="n">
-        <v>0</v>
+        <v>0.0706</v>
       </c>
     </row>
   </sheetData>
@@ -4358,9 +4334,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="18" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="18"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -4417,9 +4391,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="18" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="18"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -4476,9 +4448,7 @@
       <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="18" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E4" s="18"/>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -4535,9 +4505,7 @@
       <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="18" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="18"/>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -4679,9 +4647,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="19" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="19"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -4738,9 +4704,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="19" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="19"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -4907,9 +4871,7 @@
       <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="19" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E6" s="19"/>
       <c r="F6" t="s">
         <v>27</v>
       </c>
@@ -4966,9 +4928,7 @@
       <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="19" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E7" s="19"/>
       <c r="F7" t="s">
         <v>28</v>
       </c>
@@ -5111,7 +5071,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0</v>
+        <v>0.0362</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5182,7 +5142,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0</v>
+        <v>0.0362</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5253,7 +5213,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0</v>
+        <v>0.0362</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -5277,37 +5237,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>0</v>
+        <v>0.00724166666666667</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>0</v>
+        <v>0.021725</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>0</v>
+        <v>0.00724166666666667</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>0</v>
+        <v>0.00724166666666667</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>0.00724166666666667</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0</v>
+        <v>0.021725</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>0</v>
+        <v>0.00724166666666667</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>0</v>
+        <v>0.00724166666666667</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0</v>
+        <v>0.00724166666666667</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>0</v>
+        <v>0.021725</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0</v>
+        <v>0.0869</v>
       </c>
     </row>
     <row r="5">
@@ -5519,7 +5479,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -5590,7 +5550,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -5661,7 +5621,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -5816,9 +5776,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="20"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -5871,9 +5829,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="20"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -6011,9 +5967,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="21"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -6066,9 +6020,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="21"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -6122,7 +6074,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="21" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -6193,7 +6145,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="21" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -6264,7 +6216,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="21" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -6411,9 +6363,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="22" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="22"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -6466,9 +6416,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="22" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="22"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -6716,9 +6664,7 @@
       <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="23" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E4" s="23"/>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -6787,9 +6733,7 @@
       <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="23" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="23"/>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -6944,7 +6888,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="24" t="n">
-        <v>0.0776</v>
+        <v>0.3571</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -7015,7 +6959,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="24" t="n">
-        <v>0.0776</v>
+        <v>0.3571</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -7086,7 +7030,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="24" t="n">
-        <v>0.0776</v>
+        <v>0.3571</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -7110,37 +7054,37 @@
         <v>0.5</v>
       </c>
       <c r="M4" s="24" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="N4" s="24" t="n">
-        <v>0</v>
+        <v>0.21425</v>
       </c>
       <c r="O4" s="24" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="P4" s="24" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="Q4" s="24" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="R4" s="24" t="n">
-        <v>0</v>
+        <v>0.21425</v>
       </c>
       <c r="S4" s="24" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="T4" s="24" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="U4" s="24" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="V4" s="24" t="n">
-        <v>0</v>
+        <v>0.21425</v>
       </c>
       <c r="W4" s="24" t="n">
-        <v>0</v>
+        <v>0.857</v>
       </c>
     </row>
   </sheetData>
@@ -7242,7 +7186,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="25" t="n">
-        <v>0.0776</v>
+        <v>0.2</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -7313,7 +7257,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="25" t="n">
-        <v>0.0776</v>
+        <v>0.2</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -7384,7 +7328,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="25" t="n">
-        <v>0.0776</v>
+        <v>0.2</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -7408,37 +7352,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="25" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="N4" s="25" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="O4" s="25" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="P4" s="25" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="Q4" s="25" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="R4" s="25" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="S4" s="25" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="T4" s="25" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="U4" s="25" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="V4" s="25" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="W4" s="25" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>
@@ -7540,7 +7484,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="26" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -7611,7 +7555,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="26" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -7682,7 +7626,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="26" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -7832,7 +7776,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="27" t="n">
-        <v>0.0776</v>
+        <v>0.7692</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -7903,7 +7847,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="27" t="n">
-        <v>0.0776</v>
+        <v>0.7692</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -7974,7 +7918,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="27" t="n">
-        <v>0.0776</v>
+        <v>0.7692</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -7998,37 +7942,37 @@
         <v>2</v>
       </c>
       <c r="M4" s="27" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.153841666666667</v>
       </c>
       <c r="N4" s="27" t="n">
-        <v>0.25</v>
+        <v>0.461525</v>
       </c>
       <c r="O4" s="27" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.153841666666667</v>
       </c>
       <c r="P4" s="27" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.153841666666667</v>
       </c>
       <c r="Q4" s="27" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.153841666666667</v>
       </c>
       <c r="R4" s="27" t="n">
-        <v>0.25</v>
+        <v>0.461525</v>
       </c>
       <c r="S4" s="27" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.153841666666667</v>
       </c>
       <c r="T4" s="27" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.153841666666667</v>
       </c>
       <c r="U4" s="27" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.153841666666667</v>
       </c>
       <c r="V4" s="27" t="n">
-        <v>0.25</v>
+        <v>0.461525</v>
       </c>
       <c r="W4" s="27" t="n">
-        <v>1</v>
+        <v>1.8461</v>
       </c>
     </row>
   </sheetData>
@@ -8130,7 +8074,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="28" t="n">
-        <v>0.0776</v>
+        <v>0.1142</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -8201,7 +8145,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="28" t="n">
-        <v>0.0776</v>
+        <v>0.1142</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -8272,7 +8216,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="28" t="n">
-        <v>0.0776</v>
+        <v>0.1142</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -8296,37 +8240,37 @@
         <v>0.0488</v>
       </c>
       <c r="M4" s="28" t="n">
-        <v>0</v>
+        <v>0.0228416666666667</v>
       </c>
       <c r="N4" s="28" t="n">
-        <v>0</v>
+        <v>0.068525</v>
       </c>
       <c r="O4" s="28" t="n">
-        <v>0</v>
+        <v>0.0228416666666667</v>
       </c>
       <c r="P4" s="28" t="n">
-        <v>0</v>
+        <v>0.0228416666666667</v>
       </c>
       <c r="Q4" s="28" t="n">
-        <v>0</v>
+        <v>0.0228416666666667</v>
       </c>
       <c r="R4" s="28" t="n">
-        <v>0</v>
+        <v>0.068525</v>
       </c>
       <c r="S4" s="28" t="n">
-        <v>0</v>
+        <v>0.0228416666666667</v>
       </c>
       <c r="T4" s="28" t="n">
-        <v>0</v>
+        <v>0.0228416666666667</v>
       </c>
       <c r="U4" s="28" t="n">
-        <v>0</v>
+        <v>0.0228416666666667</v>
       </c>
       <c r="V4" s="28" t="n">
-        <v>0</v>
+        <v>0.068525</v>
       </c>
       <c r="W4" s="28" t="n">
-        <v>0</v>
+        <v>0.2741</v>
       </c>
     </row>
   </sheetData>
@@ -8428,7 +8372,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="29" t="n">
-        <v>0.0776</v>
+        <v>1.3333</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -8487,7 +8431,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="29" t="n">
-        <v>0.0776</v>
+        <v>1.3333</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -8546,7 +8490,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="29" t="n">
-        <v>0.0776</v>
+        <v>1.3333</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -8564,37 +8508,37 @@
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
       <c r="M4" s="29" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.266658333333333</v>
       </c>
       <c r="N4" s="29" t="n">
-        <v>0.25</v>
+        <v>0.799975</v>
       </c>
       <c r="O4" s="29" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.266658333333333</v>
       </c>
       <c r="P4" s="29" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.266658333333333</v>
       </c>
       <c r="Q4" s="29" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.266658333333333</v>
       </c>
       <c r="R4" s="29" t="n">
-        <v>0.25</v>
+        <v>0.799975</v>
       </c>
       <c r="S4" s="29" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.266658333333333</v>
       </c>
       <c r="T4" s="29" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.266658333333333</v>
       </c>
       <c r="U4" s="29" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.266658333333333</v>
       </c>
       <c r="V4" s="29" t="n">
-        <v>0.25</v>
+        <v>0.799975</v>
       </c>
       <c r="W4" s="29" t="n">
-        <v>1</v>
+        <v>3.1999</v>
       </c>
     </row>
   </sheetData>
@@ -8993,9 +8937,7 @@
       <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="30" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E2" s="30"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -9052,9 +8994,7 @@
       <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="30" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E3" s="30"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -9196,9 +9136,7 @@
       <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="31" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E2" s="31"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -9239,9 +9177,7 @@
       <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="31" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E3" s="31"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -10073,9 +10009,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="6"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -10144,9 +10078,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="6"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -10514,7 +10446,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -10585,7 +10517,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -10656,7 +10588,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -11109,9 +11041,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="9"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -11178,9 +11108,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="9"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>

--- a/outputs/SORs/SOR Testing_PES EMEA.xlsx
+++ b/outputs/SORs/SOR Testing_PES EMEA.xlsx
@@ -1236,9 +1236,7 @@
       <c r="L5" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="M5" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="M5" s="10"/>
       <c r="N5" s="10" t="n">
         <v>1</v>
       </c>
@@ -2022,9 +2020,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="12"/>
-      <c r="M7" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="M7" s="12"/>
       <c r="N7" s="12" t="n">
         <v>0</v>
       </c>
@@ -3638,7 +3634,9 @@
       <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -3693,7 +3691,9 @@
       <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -3760,52 +3760,40 @@
         <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="16" t="n">
-        <v>0.0294</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="16" t="n">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
       <c r="L7" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="16" t="n">
-        <v>0</v>
-      </c>
+      <c r="M7" s="16"/>
       <c r="N7" s="16" t="n">
         <v>0</v>
       </c>
       <c r="O7" s="16" t="n">
-        <v>0.0093</v>
+        <v>0</v>
       </c>
       <c r="P7" s="16" t="n">
-        <v>0.0093</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="16" t="n">
-        <v>0.0089</v>
+        <v>0</v>
       </c>
       <c r="R7" s="16" t="n">
-        <v>0.0275</v>
+        <v>0</v>
       </c>
       <c r="S7" s="16" t="n">
-        <v>0.0092</v>
+        <v>0</v>
       </c>
       <c r="T7" s="16" t="n">
         <v>0</v>
@@ -3814,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="V7" s="16" t="n">
-        <v>0.0092</v>
+        <v>0</v>
       </c>
       <c r="W7" s="16" t="n">
-        <v>0.037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3834,10 +3822,10 @@
         <v>32</v>
       </c>
       <c r="E8" s="16" t="n">
-        <v>0.0294</v>
+        <v>0.0302</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="16" t="n">
         <v>0</v>
@@ -3864,19 +3852,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="16" t="n">
-        <v>0.00837</v>
+        <v>0.0093</v>
       </c>
       <c r="P8" s="16" t="n">
-        <v>0.00837</v>
+        <v>0.0093</v>
       </c>
       <c r="Q8" s="16" t="n">
-        <v>0.00801</v>
+        <v>0.0089</v>
       </c>
       <c r="R8" s="16" t="n">
-        <v>0.02475</v>
+        <v>0.0275</v>
       </c>
       <c r="S8" s="16" t="n">
-        <v>0.00828</v>
+        <v>0.0092</v>
       </c>
       <c r="T8" s="16" t="n">
         <v>0</v>
@@ -3885,10 +3873,10 @@
         <v>0</v>
       </c>
       <c r="V8" s="16" t="n">
-        <v>0.00828</v>
+        <v>0.0092</v>
       </c>
       <c r="W8" s="16" t="n">
-        <v>0.0333</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="9">
@@ -3905,61 +3893,132 @@
         <v>32</v>
       </c>
       <c r="E9" s="16" t="n">
-        <v>0.0294</v>
+        <v>0.0302</v>
       </c>
       <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16" t="n">
+        <v>0.00837</v>
+      </c>
+      <c r="P9" s="16" t="n">
+        <v>0.00837</v>
+      </c>
+      <c r="Q9" s="16" t="n">
+        <v>0.00801</v>
+      </c>
+      <c r="R9" s="16" t="n">
+        <v>0.02475</v>
+      </c>
+      <c r="S9" s="16" t="n">
+        <v>0.00828</v>
+      </c>
+      <c r="T9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="16" t="n">
+        <v>0.00828</v>
+      </c>
+      <c r="W9" s="16" t="n">
+        <v>0.0333</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="16" t="n">
+        <v>0.0302</v>
+      </c>
+      <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="16" t="n">
-        <v>0.0291</v>
-      </c>
-      <c r="H9" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="16" t="n">
-        <v>0.0293</v>
-      </c>
-      <c r="K9" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="16" t="n">
-        <v>0.00588333333333333</v>
-      </c>
-      <c r="N9" s="16" t="n">
-        <v>0.01765</v>
-      </c>
-      <c r="O9" s="16" t="n">
-        <v>0.00588333333333333</v>
-      </c>
-      <c r="P9" s="16" t="n">
-        <v>0.00588333333333333</v>
-      </c>
-      <c r="Q9" s="16" t="n">
-        <v>0.00588333333333333</v>
-      </c>
-      <c r="R9" s="16" t="n">
-        <v>0.01765</v>
-      </c>
-      <c r="S9" s="16" t="n">
-        <v>0.00588333333333333</v>
-      </c>
-      <c r="T9" s="16" t="n">
-        <v>0.00588333333333333</v>
-      </c>
-      <c r="U9" s="16" t="n">
-        <v>0.00588333333333333</v>
-      </c>
-      <c r="V9" s="16" t="n">
-        <v>0.01765</v>
-      </c>
-      <c r="W9" s="16" t="n">
-        <v>0.0706</v>
+      <c r="G10" s="16" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="16" t="n">
+        <v>0.0302</v>
+      </c>
+      <c r="K10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="16" t="n">
+        <v>0.00503333333333333</v>
+      </c>
+      <c r="P10" s="16" t="n">
+        <v>0.00503333333333333</v>
+      </c>
+      <c r="Q10" s="16" t="n">
+        <v>0.00503333333333333</v>
+      </c>
+      <c r="R10" s="16" t="n">
+        <v>0.0151</v>
+      </c>
+      <c r="S10" s="16" t="n">
+        <v>0.00503333333333333</v>
+      </c>
+      <c r="T10" s="16" t="n">
+        <v>0.00503333333333333</v>
+      </c>
+      <c r="U10" s="16" t="n">
+        <v>0.00503333333333333</v>
+      </c>
+      <c r="V10" s="16" t="n">
+        <v>0.0151</v>
+      </c>
+      <c r="W10" s="16" t="n">
+        <v>0.0604</v>
       </c>
     </row>
   </sheetData>
@@ -5071,7 +5130,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0362</v>
+        <v>0.0361</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5142,7 +5201,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.0362</v>
+        <v>0.0361</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5213,7 +5272,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.0362</v>
+        <v>0.0361</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -5237,37 +5296,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>0.00724166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>0.021725</v>
+        <v>0.012</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>0.00724166666666667</v>
+        <v>0.00601666666666667</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>0.00724166666666667</v>
+        <v>0.00601666666666667</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0.00724166666666667</v>
+        <v>0.00601666666666667</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.021725</v>
+        <v>0.01805</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>0.00724166666666667</v>
+        <v>0.00601666666666667</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>0.00724166666666667</v>
+        <v>0.00601666666666667</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.00724166666666667</v>
+        <v>0.00601666666666667</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>0.021725</v>
+        <v>0.01805</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.0869</v>
+        <v>0.0722</v>
       </c>
     </row>
     <row r="5">
@@ -5431,11 +5490,9 @@
       <c r="L7" s="2" t="n">
         <v>0.9231</v>
       </c>
-      <c r="M7" s="2" t="n">
-        <v>0.866666666666667</v>
-      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2" t="n">
-        <v>0.866666666666667</v>
+        <v>0.8571</v>
       </c>
       <c r="O7" s="2" t="n">
         <v>0.866666666666667</v>
@@ -6231,12 +6288,8 @@
       </c>
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
-      <c r="M6" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
       <c r="O6" s="21" t="n">
         <v>0</v>
       </c>
@@ -6888,7 +6941,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="24" t="n">
-        <v>0.3571</v>
+        <v>0.3774</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6959,7 +7012,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="24" t="n">
-        <v>0.3571</v>
+        <v>0.3774</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -7030,7 +7083,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="24" t="n">
-        <v>0.3571</v>
+        <v>0.3774</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -7054,37 +7107,37 @@
         <v>0.5</v>
       </c>
       <c r="M4" s="24" t="n">
-        <v>0.0714166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="24" t="n">
-        <v>0.21425</v>
+        <v>0.4255</v>
       </c>
       <c r="O4" s="24" t="n">
-        <v>0.0714166666666667</v>
+        <v>0.0629</v>
       </c>
       <c r="P4" s="24" t="n">
-        <v>0.0714166666666667</v>
+        <v>0.0629</v>
       </c>
       <c r="Q4" s="24" t="n">
-        <v>0.0714166666666667</v>
+        <v>0.0629</v>
       </c>
       <c r="R4" s="24" t="n">
-        <v>0.21425</v>
+        <v>0.1887</v>
       </c>
       <c r="S4" s="24" t="n">
-        <v>0.0714166666666667</v>
+        <v>0.0629</v>
       </c>
       <c r="T4" s="24" t="n">
-        <v>0.0714166666666667</v>
+        <v>0.0629</v>
       </c>
       <c r="U4" s="24" t="n">
-        <v>0.0714166666666667</v>
+        <v>0.0629</v>
       </c>
       <c r="V4" s="24" t="n">
-        <v>0.21425</v>
+        <v>0.1887</v>
       </c>
       <c r="W4" s="24" t="n">
-        <v>0.857</v>
+        <v>0.7548</v>
       </c>
     </row>
   </sheetData>
@@ -7186,7 +7239,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="25" t="n">
-        <v>0.2</v>
+        <v>0.2632</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -7257,7 +7310,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="25" t="n">
-        <v>0.2</v>
+        <v>0.2632</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -7328,7 +7381,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="25" t="n">
-        <v>0.2</v>
+        <v>0.2632</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -7340,10 +7393,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="25" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="J4" s="25" t="n">
-        <v>0.1754</v>
+        <v>0.2128</v>
       </c>
       <c r="K4" s="25" t="n">
         <v>0</v>
@@ -7352,37 +7405,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="25" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N4" s="25" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="O4" s="25" t="n">
-        <v>0.04</v>
+        <v>0.0438666666666667</v>
       </c>
       <c r="P4" s="25" t="n">
-        <v>0.04</v>
+        <v>0.0438666666666667</v>
       </c>
       <c r="Q4" s="25" t="n">
-        <v>0.04</v>
+        <v>0.0438666666666667</v>
       </c>
       <c r="R4" s="25" t="n">
-        <v>0.12</v>
+        <v>0.1316</v>
       </c>
       <c r="S4" s="25" t="n">
-        <v>0.04</v>
+        <v>0.0438666666666667</v>
       </c>
       <c r="T4" s="25" t="n">
-        <v>0.04</v>
+        <v>0.0438666666666667</v>
       </c>
       <c r="U4" s="25" t="n">
-        <v>0.04</v>
+        <v>0.0438666666666667</v>
       </c>
       <c r="V4" s="25" t="n">
-        <v>0.12</v>
+        <v>0.1316</v>
       </c>
       <c r="W4" s="25" t="n">
-        <v>0.48</v>
+        <v>0.5264</v>
       </c>
     </row>
   </sheetData>
@@ -7643,12 +7696,8 @@
       </c>
       <c r="K4" s="26"/>
       <c r="L4" s="26"/>
-      <c r="M4" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
       <c r="O4" s="26" t="n">
         <v>0</v>
       </c>
@@ -7776,7 +7825,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="27" t="n">
-        <v>0.7692</v>
+        <v>0.8571</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -7847,7 +7896,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="27" t="n">
-        <v>0.7692</v>
+        <v>0.8571</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -7918,7 +7967,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="27" t="n">
-        <v>0.7692</v>
+        <v>0.8571</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -7942,37 +7991,37 @@
         <v>2</v>
       </c>
       <c r="M4" s="27" t="n">
-        <v>0.153841666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="27" t="n">
-        <v>0.461525</v>
+        <v>1.2</v>
       </c>
       <c r="O4" s="27" t="n">
-        <v>0.153841666666667</v>
+        <v>0.14285</v>
       </c>
       <c r="P4" s="27" t="n">
-        <v>0.153841666666667</v>
+        <v>0.14285</v>
       </c>
       <c r="Q4" s="27" t="n">
-        <v>0.153841666666667</v>
+        <v>0.14285</v>
       </c>
       <c r="R4" s="27" t="n">
-        <v>0.461525</v>
+        <v>0.42855</v>
       </c>
       <c r="S4" s="27" t="n">
-        <v>0.153841666666667</v>
+        <v>0.14285</v>
       </c>
       <c r="T4" s="27" t="n">
-        <v>0.153841666666667</v>
+        <v>0.14285</v>
       </c>
       <c r="U4" s="27" t="n">
-        <v>0.153841666666667</v>
+        <v>0.14285</v>
       </c>
       <c r="V4" s="27" t="n">
-        <v>0.461525</v>
+        <v>0.42855</v>
       </c>
       <c r="W4" s="27" t="n">
-        <v>1.8461</v>
+        <v>1.7142</v>
       </c>
     </row>
   </sheetData>
@@ -8074,7 +8123,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="28" t="n">
-        <v>0.1142</v>
+        <v>0.1182</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -8145,7 +8194,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="28" t="n">
-        <v>0.1142</v>
+        <v>0.1182</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -8216,61 +8265,61 @@
         <v>32</v>
       </c>
       <c r="E4" s="28" t="n">
-        <v>0.1142</v>
+        <v>0.1182</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="28" t="n">
-        <v>0.0222</v>
+        <v>0.0227</v>
       </c>
       <c r="H4" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="28" t="n">
-        <v>0.0227</v>
+        <v>0.0233</v>
       </c>
       <c r="J4" s="28" t="n">
-        <v>0.0447</v>
+        <v>0.0458</v>
       </c>
       <c r="K4" s="28" t="n">
-        <v>0.0227</v>
+        <v>0.0233</v>
       </c>
       <c r="L4" s="28" t="n">
-        <v>0.0488</v>
+        <v>0.05</v>
       </c>
       <c r="M4" s="28" t="n">
-        <v>0.0228416666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="28" t="n">
-        <v>0.068525</v>
+        <v>0.0732</v>
       </c>
       <c r="O4" s="28" t="n">
-        <v>0.0228416666666667</v>
+        <v>0.0197</v>
       </c>
       <c r="P4" s="28" t="n">
-        <v>0.0228416666666667</v>
+        <v>0.0197</v>
       </c>
       <c r="Q4" s="28" t="n">
-        <v>0.0228416666666667</v>
+        <v>0.0197</v>
       </c>
       <c r="R4" s="28" t="n">
-        <v>0.068525</v>
+        <v>0.0591</v>
       </c>
       <c r="S4" s="28" t="n">
-        <v>0.0228416666666667</v>
+        <v>0.0197</v>
       </c>
       <c r="T4" s="28" t="n">
-        <v>0.0228416666666667</v>
+        <v>0.0197</v>
       </c>
       <c r="U4" s="28" t="n">
-        <v>0.0228416666666667</v>
+        <v>0.0197</v>
       </c>
       <c r="V4" s="28" t="n">
-        <v>0.068525</v>
+        <v>0.0591</v>
       </c>
       <c r="W4" s="28" t="n">
-        <v>0.2741</v>
+        <v>0.2364</v>
       </c>
     </row>
   </sheetData>
@@ -8507,38 +8556,34 @@
       </c>
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
-      <c r="M4" s="29" t="n">
-        <v>0.266658333333333</v>
-      </c>
-      <c r="N4" s="29" t="n">
-        <v>0.799975</v>
-      </c>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
       <c r="O4" s="29" t="n">
-        <v>0.266658333333333</v>
+        <v>0.222216666666667</v>
       </c>
       <c r="P4" s="29" t="n">
-        <v>0.266658333333333</v>
+        <v>0.222216666666667</v>
       </c>
       <c r="Q4" s="29" t="n">
-        <v>0.266658333333333</v>
+        <v>0.222216666666667</v>
       </c>
       <c r="R4" s="29" t="n">
-        <v>0.799975</v>
+        <v>0.66665</v>
       </c>
       <c r="S4" s="29" t="n">
-        <v>0.266658333333333</v>
+        <v>0.222216666666667</v>
       </c>
       <c r="T4" s="29" t="n">
-        <v>0.266658333333333</v>
+        <v>0.222216666666667</v>
       </c>
       <c r="U4" s="29" t="n">
-        <v>0.266658333333333</v>
+        <v>0.222216666666667</v>
       </c>
       <c r="V4" s="29" t="n">
-        <v>0.799975</v>
+        <v>0.66665</v>
       </c>
       <c r="W4" s="29" t="n">
-        <v>3.1999</v>
+        <v>2.6666</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_PES EMEA.xlsx
+++ b/outputs/SORs/SOR Testing_PES EMEA.xlsx
@@ -37,12 +37,13 @@
     <sheet name="Juarez Casa I" sheetId="29" state="visible" r:id="rId29"/>
     <sheet name="Suzhou China" sheetId="30" state="visible" r:id="rId30"/>
     <sheet name="Edmonton EDM Canada" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="Bangkrang Nonthaburi" sheetId="32" state="visible" r:id="rId32"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -134,10 +135,10 @@
     <t xml:space="preserve">Commit/Forecast</t>
   </si>
   <si>
-    <t xml:space="preserve">Ciserano Italy</t>
+    <t xml:space="preserve">Internal Fill Rate</t>
   </si>
   <si>
-    <t xml:space="preserve">Internal Fill Rate</t>
+    <t xml:space="preserve">Ciserano Italy</t>
   </si>
   <si>
     <t xml:space="preserve">Manufacturing Voluntary Turnover</t>
@@ -229,12 +230,15 @@
   <si>
     <t xml:space="preserve">Edmonton EDM Canada</t>
   </si>
+  <si>
+    <t xml:space="preserve">Bangkrang Nonthaburi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="31">
+  <numFmts count="32">
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -266,6 +270,7 @@
     <numFmt numFmtId="193" formatCode="0.0%"/>
     <numFmt numFmtId="194" formatCode="0.0%"/>
     <numFmt numFmtId="195" formatCode="0.0%"/>
+    <numFmt numFmtId="196" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -301,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -334,6 +339,7 @@
     <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -911,6 +917,61 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1220,7 +1281,7 @@
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="10" t="n">
         <v>1</v>
@@ -1240,9 +1301,7 @@
       <c r="N5" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="O5" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="O5" s="10"/>
       <c r="P5" s="10" t="n">
         <v>1</v>
       </c>
@@ -1687,9 +1746,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="12"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1758,9 +1815,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="12"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1827,54 +1882,32 @@
         <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="12" t="n">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E4" s="12"/>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
       <c r="P4" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="Q4" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q4" s="12"/>
       <c r="R4" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="S4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
       <c r="W4" s="12" t="n">
         <v>0</v>
       </c>
@@ -1890,36 +1923,62 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="12" t="n">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E5" s="12"/>
       <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
+        <v>28</v>
+      </c>
+      <c r="G5" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="12" t="n">
+        <v>0.5</v>
+      </c>
       <c r="P5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="12" t="n">
+        <v>0.5</v>
+      </c>
       <c r="R5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="S5" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T5" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U5" s="12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V5" s="12" t="n">
+        <v>0.5</v>
+      </c>
       <c r="W5" s="12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -1933,64 +1992,46 @@
         <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="12" t="n">
-        <v>0</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E6" s="12"/>
       <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="12" t="n">
-        <v>0.5</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
       <c r="O6" s="12" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P6" s="12" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="12" t="n">
-        <v>0.5</v>
+        <v>0.1429</v>
       </c>
       <c r="R6" s="12" t="n">
-        <v>0.5</v>
+        <v>0.1667</v>
       </c>
       <c r="S6" s="12" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="T6" s="12" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="U6" s="12" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V6" s="12" t="n">
-        <v>0.5</v>
+        <v>0.6977</v>
       </c>
       <c r="W6" s="12" t="n">
-        <v>0.5</v>
+        <v>0.7692</v>
       </c>
     </row>
     <row r="7">
@@ -2004,26 +2045,20 @@
         <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="12" t="n">
-        <v>0</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E7" s="12"/>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
-      <c r="N7" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="N7" s="12"/>
       <c r="O7" s="12" t="n">
         <v>0</v>
       </c>
@@ -2031,130 +2066,24 @@
         <v>0</v>
       </c>
       <c r="Q7" s="12" t="n">
-        <v>0</v>
+        <v>0.12861</v>
       </c>
       <c r="R7" s="12" t="n">
-        <v>0</v>
+        <v>0.15003</v>
       </c>
       <c r="S7" s="12" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="T7" s="12" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="U7" s="12" t="n">
         <v>0</v>
       </c>
       <c r="V7" s="12" t="n">
-        <v>0</v>
+        <v>0.62793</v>
       </c>
       <c r="W7" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="12" t="n">
-        <v>0.1429</v>
-      </c>
-      <c r="R8" s="12" t="n">
-        <v>0.1667</v>
-      </c>
-      <c r="S8" s="12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="T8" s="12" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="U8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="12" t="n">
-        <v>0.6977</v>
-      </c>
-      <c r="W8" s="12" t="n">
-        <v>0.7692</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="12" t="n">
-        <v>0.12861</v>
-      </c>
-      <c r="R9" s="12" t="n">
-        <v>0.15003</v>
-      </c>
-      <c r="S9" s="12" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="T9" s="12" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="U9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="12" t="n">
-        <v>0.62793</v>
-      </c>
-      <c r="W9" s="12" t="n">
         <v>0.69228</v>
       </c>
     </row>
@@ -2467,7 +2396,7 @@
         <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" t="s">
@@ -2508,7 +2437,7 @@
         <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" t="s">
@@ -3632,10 +3561,10 @@
         <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="16" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -3689,10 +3618,10 @@
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="16" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -3760,10 +3689,10 @@
         <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="16" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -3781,31 +3710,31 @@
         <v>0</v>
       </c>
       <c r="O7" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="16" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Q7" s="16" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="R7" s="16" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="S7" s="16" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="T7" s="16" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="U7" s="16" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="V7" s="16" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="W7" s="16" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8">
@@ -3822,7 +3751,7 @@
         <v>32</v>
       </c>
       <c r="E8" s="16" t="n">
-        <v>0.0302</v>
+        <v>0.0289</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3893,7 +3822,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="16" t="n">
-        <v>0.0302</v>
+        <v>0.0289</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -3964,13 +3893,13 @@
         <v>32</v>
       </c>
       <c r="E10" s="16" t="n">
-        <v>0.0302</v>
+        <v>0.0289</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="16" t="n">
-        <v>0.03</v>
+        <v>0.0291</v>
       </c>
       <c r="H10" s="16" t="n">
         <v>0</v>
@@ -3979,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="16" t="n">
-        <v>0.0302</v>
+        <v>0.0291</v>
       </c>
       <c r="K10" s="16" t="n">
         <v>0</v>
@@ -3994,31 +3923,31 @@
         <v>0</v>
       </c>
       <c r="O10" s="16" t="n">
-        <v>0.00503333333333333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="16" t="n">
-        <v>0.00503333333333333</v>
+        <v>0.004125</v>
       </c>
       <c r="Q10" s="16" t="n">
-        <v>0.00503333333333333</v>
+        <v>0.004125</v>
       </c>
       <c r="R10" s="16" t="n">
-        <v>0.0151</v>
+        <v>0.012375</v>
       </c>
       <c r="S10" s="16" t="n">
-        <v>0.00503333333333333</v>
+        <v>0.004125</v>
       </c>
       <c r="T10" s="16" t="n">
-        <v>0.00503333333333333</v>
+        <v>0.004125</v>
       </c>
       <c r="U10" s="16" t="n">
-        <v>0.00503333333333333</v>
+        <v>0.004125</v>
       </c>
       <c r="V10" s="16" t="n">
-        <v>0.0151</v>
+        <v>0.012375</v>
       </c>
       <c r="W10" s="16" t="n">
-        <v>0.0604</v>
+        <v>0.0495</v>
       </c>
     </row>
   </sheetData>
@@ -4818,7 +4747,7 @@
         <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" t="s">
@@ -4859,7 +4788,7 @@
         <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" t="s">
@@ -5124,7 +5053,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -5195,7 +5124,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -5266,7 +5195,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -5302,31 +5231,31 @@
         <v>0.012</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>0.00601666666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>0.00601666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0.00601666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.01805</v>
+        <v>0</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>0.00601666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>0.00601666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.00601666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>0.01805</v>
+        <v>0</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.0722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5337,10 +5266,10 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
         <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>0.866666666666667</v>
@@ -5394,10 +5323,10 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
         <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0.866666666666667</v>
@@ -5465,10 +5394,10 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>0.866666666666667</v>
@@ -5494,9 +5423,7 @@
       <c r="N7" s="2" t="n">
         <v>0.8571</v>
       </c>
-      <c r="O7" s="2" t="n">
-        <v>0.866666666666667</v>
-      </c>
+      <c r="O7" s="2"/>
       <c r="P7" s="2" t="n">
         <v>0.866666666666667</v>
       </c>
@@ -5530,7 +5457,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
         <v>32</v>
@@ -5601,7 +5528,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
         <v>32</v>
@@ -5672,7 +5599,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>32</v>
@@ -6290,9 +6217,7 @@
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
       <c r="N6" s="21"/>
-      <c r="O6" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="O6" s="21"/>
       <c r="P6" s="21" t="n">
         <v>0</v>
       </c>
@@ -6509,6 +6434,61 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="22" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -6605,7 +6585,7 @@
         <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" t="s">
@@ -6646,7 +6626,7 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" t="s">
@@ -6941,7 +6921,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="24" t="n">
-        <v>0.3774</v>
+        <v>0.3922</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -7012,7 +6992,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="24" t="n">
-        <v>0.3774</v>
+        <v>0.3922</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -7083,7 +7063,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="24" t="n">
-        <v>0.3774</v>
+        <v>0.3922</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -7113,31 +7093,31 @@
         <v>0.4255</v>
       </c>
       <c r="O4" s="24" t="n">
-        <v>0.0629</v>
+        <v>0</v>
       </c>
       <c r="P4" s="24" t="n">
-        <v>0.0629</v>
+        <v>0.056025</v>
       </c>
       <c r="Q4" s="24" t="n">
-        <v>0.0629</v>
+        <v>0.056025</v>
       </c>
       <c r="R4" s="24" t="n">
-        <v>0.1887</v>
+        <v>0.168075</v>
       </c>
       <c r="S4" s="24" t="n">
-        <v>0.0629</v>
+        <v>0.056025</v>
       </c>
       <c r="T4" s="24" t="n">
-        <v>0.0629</v>
+        <v>0.056025</v>
       </c>
       <c r="U4" s="24" t="n">
-        <v>0.0629</v>
+        <v>0.056025</v>
       </c>
       <c r="V4" s="24" t="n">
-        <v>0.1887</v>
+        <v>0.168075</v>
       </c>
       <c r="W4" s="24" t="n">
-        <v>0.7548</v>
+        <v>0.6723</v>
       </c>
     </row>
   </sheetData>
@@ -7239,7 +7219,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="25" t="n">
-        <v>0.2632</v>
+        <v>0.5882</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -7310,7 +7290,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="25" t="n">
-        <v>0.2632</v>
+        <v>0.5882</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -7381,7 +7361,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="25" t="n">
-        <v>0.2632</v>
+        <v>0.5882</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -7393,49 +7373,39 @@
         <v>0</v>
       </c>
       <c r="I4" s="25" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="J4" s="25" t="n">
-        <v>0.2128</v>
-      </c>
-      <c r="K4" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="25" t="n">
-        <v>0.0438666666666667</v>
-      </c>
+        <v>0.5882</v>
+      </c>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
       <c r="P4" s="25" t="n">
-        <v>0.0438666666666667</v>
+        <v>0.084025</v>
       </c>
       <c r="Q4" s="25" t="n">
-        <v>0.0438666666666667</v>
+        <v>0.084025</v>
       </c>
       <c r="R4" s="25" t="n">
-        <v>0.1316</v>
+        <v>0.252075</v>
       </c>
       <c r="S4" s="25" t="n">
-        <v>0.0438666666666667</v>
+        <v>0.084025</v>
       </c>
       <c r="T4" s="25" t="n">
-        <v>0.0438666666666667</v>
+        <v>0.084025</v>
       </c>
       <c r="U4" s="25" t="n">
-        <v>0.0438666666666667</v>
+        <v>0.084025</v>
       </c>
       <c r="V4" s="25" t="n">
-        <v>0.1316</v>
+        <v>0.252075</v>
       </c>
       <c r="W4" s="25" t="n">
-        <v>0.5264</v>
+        <v>1.0083</v>
       </c>
     </row>
   </sheetData>
@@ -7698,9 +7668,7 @@
       <c r="L4" s="26"/>
       <c r="M4" s="26"/>
       <c r="N4" s="26"/>
-      <c r="O4" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="O4" s="26"/>
       <c r="P4" s="26" t="n">
         <v>0</v>
       </c>
@@ -7825,7 +7793,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="27" t="n">
-        <v>0.8571</v>
+        <v>0.9375</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -7896,7 +7864,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="27" t="n">
-        <v>0.8571</v>
+        <v>0.9375</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -7967,7 +7935,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="27" t="n">
-        <v>0.8571</v>
+        <v>0.9375</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -7997,31 +7965,31 @@
         <v>1.2</v>
       </c>
       <c r="O4" s="27" t="n">
-        <v>0.14285</v>
+        <v>0</v>
       </c>
       <c r="P4" s="27" t="n">
-        <v>0.14285</v>
+        <v>0.133925</v>
       </c>
       <c r="Q4" s="27" t="n">
-        <v>0.14285</v>
+        <v>0.133925</v>
       </c>
       <c r="R4" s="27" t="n">
-        <v>0.42855</v>
+        <v>0.401775</v>
       </c>
       <c r="S4" s="27" t="n">
-        <v>0.14285</v>
+        <v>0.133925</v>
       </c>
       <c r="T4" s="27" t="n">
-        <v>0.14285</v>
+        <v>0.133925</v>
       </c>
       <c r="U4" s="27" t="n">
-        <v>0.14285</v>
+        <v>0.133925</v>
       </c>
       <c r="V4" s="27" t="n">
-        <v>0.42855</v>
+        <v>0.401775</v>
       </c>
       <c r="W4" s="27" t="n">
-        <v>1.7142</v>
+        <v>1.6071</v>
       </c>
     </row>
   </sheetData>
@@ -8123,7 +8091,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="28" t="n">
-        <v>0.1182</v>
+        <v>0.1449</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -8194,7 +8162,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="28" t="n">
-        <v>0.1182</v>
+        <v>0.1449</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -8265,7 +8233,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="28" t="n">
-        <v>0.1182</v>
+        <v>0.1449</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -8283,43 +8251,43 @@
         <v>0.0458</v>
       </c>
       <c r="K4" s="28" t="n">
-        <v>0.0233</v>
+        <v>0.0476</v>
       </c>
       <c r="L4" s="28" t="n">
-        <v>0.05</v>
+        <v>0.0513</v>
       </c>
       <c r="M4" s="28" t="n">
         <v>0</v>
       </c>
       <c r="N4" s="28" t="n">
-        <v>0.0732</v>
+        <v>0.1</v>
       </c>
       <c r="O4" s="28" t="n">
-        <v>0.0197</v>
+        <v>0</v>
       </c>
       <c r="P4" s="28" t="n">
-        <v>0.0197</v>
+        <v>0.0207</v>
       </c>
       <c r="Q4" s="28" t="n">
-        <v>0.0197</v>
+        <v>0.0207</v>
       </c>
       <c r="R4" s="28" t="n">
-        <v>0.0591</v>
+        <v>0.0621</v>
       </c>
       <c r="S4" s="28" t="n">
-        <v>0.0197</v>
+        <v>0.0207</v>
       </c>
       <c r="T4" s="28" t="n">
-        <v>0.0197</v>
+        <v>0.0207</v>
       </c>
       <c r="U4" s="28" t="n">
-        <v>0.0197</v>
+        <v>0.0207</v>
       </c>
       <c r="V4" s="28" t="n">
-        <v>0.0591</v>
+        <v>0.0621</v>
       </c>
       <c r="W4" s="28" t="n">
-        <v>0.2364</v>
+        <v>0.2484</v>
       </c>
     </row>
   </sheetData>
@@ -8558,32 +8526,30 @@
       <c r="L4" s="29"/>
       <c r="M4" s="29"/>
       <c r="N4" s="29"/>
-      <c r="O4" s="29" t="n">
-        <v>0.222216666666667</v>
-      </c>
+      <c r="O4" s="29"/>
       <c r="P4" s="29" t="n">
-        <v>0.222216666666667</v>
+        <v>0.190475</v>
       </c>
       <c r="Q4" s="29" t="n">
-        <v>0.222216666666667</v>
+        <v>0.190475</v>
       </c>
       <c r="R4" s="29" t="n">
-        <v>0.66665</v>
+        <v>0.571425</v>
       </c>
       <c r="S4" s="29" t="n">
-        <v>0.222216666666667</v>
+        <v>0.190475</v>
       </c>
       <c r="T4" s="29" t="n">
-        <v>0.222216666666667</v>
+        <v>0.190475</v>
       </c>
       <c r="U4" s="29" t="n">
-        <v>0.222216666666667</v>
+        <v>0.190475</v>
       </c>
       <c r="V4" s="29" t="n">
-        <v>0.66665</v>
+        <v>0.571425</v>
       </c>
       <c r="W4" s="29" t="n">
-        <v>2.6666</v>
+        <v>2.2857</v>
       </c>
     </row>
   </sheetData>
@@ -9256,6 +9222,146 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -9857,7 +9963,7 @@
         <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" t="s">
@@ -9898,7 +10004,7 @@
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" t="s">
